--- a/lib/data/supplement_db/沥青现货价格.xlsx
+++ b/lib/data/supplement_db/沥青现货价格.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9B7CCD-36C9-4A91-AFA5-51C06A823457}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -121,7 +122,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -138,12 +139,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 12" xfId="2"/>
-    <cellStyle name="常规 35" xfId="3"/>
-    <cellStyle name="常规 46" xfId="1"/>
+    <cellStyle name="常规 12" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 35" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 46" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -159,7 +166,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -234,6 +241,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -269,6 +293,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,14 +485,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3017"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3027"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2944" workbookViewId="0">
-      <selection activeCell="J2976" sqref="J2976"/>
+    <sheetView tabSelected="1" topLeftCell="A2991" workbookViewId="0">
+      <selection activeCell="A3018" sqref="A3018:B3027"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1"/>
@@ -24587,6 +24631,86 @@
         <v>3450</v>
       </c>
     </row>
+    <row r="3018" spans="1:2">
+      <c r="A3018" s="6">
+        <v>43563</v>
+      </c>
+      <c r="B3018" s="7">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:2">
+      <c r="A3019" s="6">
+        <v>43564</v>
+      </c>
+      <c r="B3019" s="7">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:2">
+      <c r="A3020" s="6">
+        <v>43565</v>
+      </c>
+      <c r="B3020" s="7">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:2">
+      <c r="A3021" s="6">
+        <v>43566</v>
+      </c>
+      <c r="B3021" s="7">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:2">
+      <c r="A3022" s="6">
+        <v>43567</v>
+      </c>
+      <c r="B3022" s="7">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:2">
+      <c r="A3023" s="6">
+        <v>43570</v>
+      </c>
+      <c r="B3023" s="7">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:2">
+      <c r="A3024" s="6">
+        <v>43571</v>
+      </c>
+      <c r="B3024" s="7">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:2">
+      <c r="A3025" s="6">
+        <v>43572</v>
+      </c>
+      <c r="B3025" s="7">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:2">
+      <c r="A3026" s="6">
+        <v>43573</v>
+      </c>
+      <c r="B3026" s="7">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:2">
+      <c r="A3027" s="6">
+        <v>43574</v>
+      </c>
+      <c r="B3027" s="7">
+        <v>3535</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
